--- a/document/게시판 서비스 api 설계.xlsx
+++ b/document/게시판 서비스 api 설계.xlsx
@@ -1,39 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\mvc-board-project\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8DD1CD-9872-4A3C-9761-10E2B782326C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10830" windowHeight="3990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="endpoints" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="api" sheetId="2" r:id="rId5"/>
+    <sheet name="endpoints" sheetId="1" r:id="rId1"/>
+    <sheet name="api" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">api!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C15">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">PUT - 통으로 치환할 때 쓴다
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>데이터를 가져오는 api를 만든다
+	-Leti</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>api와 view의 end point가 비슷한 구성을 갖도록 한다.
+	-Leti</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>PUT - 통으로 치환할 때 쓴다
 PATCH - 해당 데이터의 필드의 일부분만 수정하고자 할 때 사용한다
 	-Leti</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B10">
-      <text>
-        <t xml:space="preserve">api와 view의 end point가 비슷한 구성을 갖도록 한다.
-	-Leti</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A10">
-      <text>
-        <t xml:space="preserve">데이터를 가져오는 api를 만든다
-	-Leti</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -41,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>종류</t>
   </si>
@@ -139,9 +175,6 @@
     <t>게시글 리스트 조회</t>
   </si>
   <si>
-    <t>#20 - 게시글 서비스 로직의 테스트와 골격 잡기</t>
-  </si>
-  <si>
     <t>/api/aricles/{article-id}</t>
   </si>
   <si>
@@ -230,47 +263,99 @@
   </si>
   <si>
     <t>댓글, id</t>
+  </si>
+  <si>
+    <t>확인한 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8082/api/articles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/aricles/{article-id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8082/api/articleComments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8082/api/articles/2</t>
+  </si>
+  <si>
+    <t>http://localhost:8082/api/articles/15/articleComments</t>
+  </si>
+  <si>
+    <t>http://localhost:8082/api/articleComments/20</t>
+  </si>
+  <si>
+    <t>/api/article/{article-id}/articleComments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/articleComments/{article-id}/article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8082/api/articleComments/88/article</t>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -280,64 +365,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -527,25 +710,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="45.5"/>
-    <col customWidth="1" min="4" max="4" width="29.88"/>
-    <col customWidth="1" min="5" max="5" width="37.25"/>
+    <col min="2" max="2" width="65.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,456 +750,595 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="3" t="s">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A23"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.5"/>
-    <col customWidth="1" min="3" max="3" width="36.0"/>
-    <col customWidth="1" min="4" max="4" width="38.75"/>
-    <col customWidth="1" min="5" max="5" width="6.88"/>
+    <col min="1" max="1" width="56.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:F1" xr:uid="{66685CE6-79B5-4926-A5EE-ABD39647F449}">
+    <sortState ref="A2:F15">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>